--- a/docs/PPG/Documentos.xlsx
+++ b/docs/PPG/Documentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA87007-B183-DC43-8A57-8D3EB2CDD71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D226848E-8C1F-5A45-AC45-E8C51C4BC835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="205">
   <si>
     <t>Publicação</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Portaria No. 656 DOU 23/05/2017, Seção 1 Página 14.pdf</t>
   </si>
   <si>
-    <t>Portaria N. 919 DOU 18/08/2016, Seção 1, Página 13.pdf</t>
-  </si>
-  <si>
     <t>Calendário 2010.pdf</t>
   </si>
   <si>
@@ -638,6 +635,33 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/18KT6hFduHlxoZ3K5qFsgHqrnWerHFStO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Portaria No. 609 DOU 14/03/ 2019, Seção 1, página 63.pdf</t>
+  </si>
+  <si>
+    <t>Portaria No. 919 DOU 18/08/2016, Seção 1, Página 13.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VrB76Su8EhLdF0H9gT0L6acBvHp_zJaI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Portaria No. 88-2019.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VrPayieMPKqK6AO2OkbFxMXmA1p0sjH6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Portaria No. 6 Reitoria 18/01/2016.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SX_dH_sYASOIoT5kYr5Z37odJ9TLNUsW/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1047,29 +1071,29 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1077,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1088,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1107,46 +1131,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1154,10 +1178,10 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1200,43 +1224,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,21 +1268,21 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1294,43 +1318,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1338,21 +1362,21 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1388,32 +1412,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
         <v>180</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1443,76 +1467,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1520,10 +1544,10 @@
         <v>2020</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,32 +1588,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
         <v>193</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,10 +1621,10 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1608,10 +1632,10 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,10 +1643,10 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1630,10 +1654,10 @@
         <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1667,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1708,7 +1732,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1785,13 +1809,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1807,13 +1831,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1824,7 +1848,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1883,10 +1907,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1915,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,10 +1950,10 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1937,10 +1961,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,10 +1972,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,7 +2082,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C7AFEF-36C8-864D-8651-D421BA918B4B}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2074,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2092,14 +2116,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2013</v>
+      <c r="A3" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2107,10 +2131,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2118,14 +2142,22 @@
         <v>2013</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
@@ -2133,16 +2165,20 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
-    <sortCondition descending="1" ref="A2:A5"/>
-    <sortCondition ref="B2:B5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+    <sortCondition descending="1" ref="A2:A6"/>
+    <sortCondition ref="B2:B6"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{C90BEB4B-9899-3B44-9044-D448C925BAE5}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{3FA96E8D-C32D-E845-BD5A-EC6CDAE9A7B7}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{4198EF41-607F-2D44-ABDE-16E831B16E75}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{C90BEB4B-9899-3B44-9044-D448C925BAE5}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{3FA96E8D-C32D-E845-BD5A-EC6CDAE9A7B7}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{4198EF41-607F-2D44-ABDE-16E831B16E75}"/>
     <hyperlink ref="C2" r:id="rId4" xr:uid="{C718E448-D2D5-2A4A-AE39-F7C0AA815611}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{2292F12B-44A3-114B-A3D4-C491E839C94D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2150,7 +2186,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB634CC-B533-104D-9C10-DEDB979EEA13}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2166,21 +2202,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>2017</v>
+      <c r="A2" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2188,25 +2224,33 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2016</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
@@ -2217,15 +2261,19 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
-    <sortCondition descending="1" ref="A2:A4"/>
-    <sortCondition ref="B2:B4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C5">
+    <sortCondition descending="1" ref="A3:A5"/>
+    <sortCondition ref="B3:B5"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{BAF833C6-DC3D-B84D-9BC7-9F1D611A1210}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5CFA6E01-324D-C241-96DC-08356B165B08}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{2D84B188-A73F-9F45-A691-DC541E1600B6}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{BAF833C6-DC3D-B84D-9BC7-9F1D611A1210}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5CFA6E01-324D-C241-96DC-08356B165B08}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2D84B188-A73F-9F45-A691-DC541E1600B6}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{A9A3FDCA-63D9-5645-A18A-B3EB7AE80A93}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2233,7 +2281,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9191A-63AF-7C48-8D7A-59051EE43090}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2249,26 +2297,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{39A12694-7540-3B48-9F1A-11D318B31DAB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C079C38B-9AFD-7848-9DCB-69C50774D18A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2292,32 +2352,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
         <v>183</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2325,43 +2385,43 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,10 +2429,10 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2380,32 +2440,32 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2413,54 +2473,54 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2468,32 +2528,32 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2501,21 +2561,21 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2523,32 +2583,32 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Documentos.xlsx
+++ b/docs/PPG/Documentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D226848E-8C1F-5A45-AC45-E8C51C4BC835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4132112-7763-E94C-8FE1-53DD79B7E1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="206">
   <si>
     <t>Publicação</t>
   </si>
@@ -298,9 +298,6 @@
     <t>https://drive.google.com/file/d/10YKEfa6sT1EkD-l5Wx5y5gVAJ3pyC3f2/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/15vIzpiFMrecOti5f0-tR8xTBbHCeXpHG/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/167gMEpfykjjpdQLLRE0hooBMX0VDcV6C/view?usp=sharing</t>
   </si>
   <si>
@@ -496,9 +493,6 @@
     <t>https://drive.google.com/file/d/1cDpANLRIDBhv0jJG4QhLNzSnlixDUUto/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1IUAMx10BwqaGIwmCVEAWLsItT0IUKYtC/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Qualidade das Disciplinas</t>
   </si>
   <si>
@@ -532,9 +526,6 @@
     <t>Calendário 2021-2.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ZNzKXXILj0cj0rPKTK31glsQ4rQdIHd5/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1F4njSoGRZM6uqScrzZyr5gwUhpKzkA4I/view?usp=sharing</t>
   </si>
   <si>
@@ -662,6 +653,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1SX_dH_sYASOIoT5kYr5Z37odJ9TLNUsW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YZ1i77J7-fgPIJoDwH-LEyYwuEKHgr44/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YYURn8Fj2llVhPR6pMSBMl0H4v5XLoF1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YZAUwl80hu2hbEVAD-JcymdZ6lpTtHp2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RTvX0cbaBD-fgMJ0ojyVeBNqXvFAvSGI/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1071,29 +1074,29 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1101,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1112,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,10 +1137,10 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1145,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1156,21 +1159,21 @@
         <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1178,10 +1181,10 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1224,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,10 +1238,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,10 +1249,10 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,10 +1260,10 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,21 +1271,21 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1318,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,10 +1332,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1340,10 +1343,10 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1351,10 +1354,10 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1362,21 +1365,21 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1412,32 +1415,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1467,76 +1470,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1544,10 +1547,10 @@
         <v>2020</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1562,9 +1565,9 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{22641FE5-A161-794B-A5D4-000F479C9C92}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{8F7529E1-EE19-294A-A045-4D68F6F8E3D9}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{E15D1781-4546-2A46-A6D2-73C8A3B35FDD}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{0E150DA1-C907-7541-B765-711192C858E0}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C532E022-FF3E-E14E-A828-5A60E0D755A2}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{EFD2E4C0-8CDA-2B49-9A57-ACA7C5D6B8D3}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{C532E022-FF3E-E14E-A828-5A60E0D755A2}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{EFD2E4C0-8CDA-2B49-9A57-ACA7C5D6B8D3}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{B51F99A6-2893-674A-A7C2-CFFE8E8CC8B4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1588,32 +1591,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1621,10 +1624,10 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1632,10 +1635,10 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1643,10 +1646,10 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1654,10 +1657,10 @@
         <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1691,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1809,13 +1812,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1831,13 +1834,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1848,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1880,9 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD6E09-5725-BA4A-BA76-BECEC3669735}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1896,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,10 +1908,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1939,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1950,10 +1951,10 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1961,10 +1962,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1972,10 +1973,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2006,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2098,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2117,13 +2118,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2202,21 +2203,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2246,7 +2247,7 @@
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -2297,32 +2298,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2352,32 +2353,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,7 +2389,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,7 +2400,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2421,7 +2422,7 @@
         <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2432,7 +2433,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,7 +2444,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2454,7 +2455,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2465,7 +2466,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2476,7 +2477,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2487,7 +2488,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,7 +2499,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,7 +2510,7 @@
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,7 +2521,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,7 +2532,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,7 +2543,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2553,7 +2554,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2564,7 +2565,7 @@
         <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2575,7 +2576,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2586,7 +2587,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2597,7 +2598,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2608,7 +2609,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2618,28 +2619,28 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="C24" r:id="rId1" xr:uid="{26A2D68A-4772-1445-9925-0132001B33BC}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{4E71743C-B70E-8949-9E6E-F593B0F7E4C5}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{C8440CF8-53BF-3E4F-8352-21040738E10F}"/>
-    <hyperlink ref="C21" r:id="rId4" xr:uid="{F5DFAA12-425C-474D-9113-0AA172EF0307}"/>
-    <hyperlink ref="C20" r:id="rId5" xr:uid="{5684F77C-57DB-6144-91DF-6712CAB5DCB9}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{F10E0C51-5929-7D48-84B1-9D7B39E6785A}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{35A5CC3E-F972-B149-9E55-D54F94F62B6D}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{44A63F25-ACCD-4B40-B599-BB0A58778A11}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{4B09B155-6446-B245-9F5A-9D894638E90A}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{5F476524-36A1-0B42-8ABA-27C0C4325534}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{56ACBE52-8088-0C4F-BD0D-8C70B2BB873E}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{D4E517E1-4F7D-F744-9DF7-558F53132AED}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{4727F7CF-4B81-4042-8675-E86A230066FC}"/>
-    <hyperlink ref="C11" r:id="rId14" xr:uid="{3238085B-AD02-6E4B-ADC1-A2E5CCBA6EE7}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{09F63D99-9E18-8C4A-9204-D692EB55FD23}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{01205527-E6BF-D448-AA2B-F3330087DD8B}"/>
-    <hyperlink ref="C8" r:id="rId17" xr:uid="{97590550-EB2F-CB4C-B7D6-23933F6D4F0C}"/>
-    <hyperlink ref="C7" r:id="rId18" xr:uid="{9127FE7C-8078-0C46-9DD3-8A954FC42995}"/>
-    <hyperlink ref="C6" r:id="rId19" xr:uid="{849D7259-533E-184D-A550-3B982993B15E}"/>
-    <hyperlink ref="C5" r:id="rId20" xr:uid="{89087CE2-29DD-B144-BE0B-4F122B6A4A27}"/>
-    <hyperlink ref="C4" r:id="rId21" xr:uid="{D070D301-77E3-6944-AB72-8F514FD4C75B}"/>
-    <hyperlink ref="C3" r:id="rId22" xr:uid="{9C7168D6-DEF8-7749-B82C-74471D5094A4}"/>
-    <hyperlink ref="C2" r:id="rId23" xr:uid="{E8C2EC78-09E8-4645-8A1D-FA512F70923E}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{5C9C3329-E022-6E48-8E73-4A3ED9B2C85A}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{4FE288B9-FA34-C540-AE22-4DCBC476328A}"/>
+    <hyperlink ref="C21" r:id="rId4" xr:uid="{47E61DAF-474D-2549-BB3A-680FE49DE58A}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{F1C7CB66-F3D1-9B45-AF16-F6BBA468813A}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{50FA510A-31B3-9A4C-AF22-022A08FC5753}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{D605F9D8-87B4-7545-88F8-0836F454AF1B}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{9A09FF75-B312-8846-9977-F8CCB9B5C3F6}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{EF0C1FF7-E680-8E43-A74C-ECAF19F7491D}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{8D3E0A0A-3534-2448-BDCF-AB812D15F9FF}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{9B60F528-5A9B-7648-A610-F8FB2DC6E5AB}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{869C15E8-E239-2C4F-B3BC-6C26CEBA71D9}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{F4EBDBE3-1A47-1545-A22E-A00420589B8A}"/>
+    <hyperlink ref="C11" r:id="rId14" xr:uid="{F7301F90-2D39-4246-978D-B7E7DB62D415}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{BABAE171-D937-C941-B1F4-288367031C0E}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{0B45D062-8CCC-F04E-B5A9-834A2EBE0AF6}"/>
+    <hyperlink ref="C8" r:id="rId17" xr:uid="{04F615BF-0CD8-E245-9B86-1D708B06BD04}"/>
+    <hyperlink ref="C7" r:id="rId18" xr:uid="{920D2E45-4659-5B47-88AD-7C7F45A18F01}"/>
+    <hyperlink ref="C6" r:id="rId19" xr:uid="{0A271885-2D63-FB42-8645-543D7C05A2B4}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{F5B3F1A7-53F1-5F4F-8FBF-3221B140425D}"/>
+    <hyperlink ref="C4" r:id="rId21" xr:uid="{F2B3D762-81EA-274F-9519-66A0A3B8DB01}"/>
+    <hyperlink ref="C3" r:id="rId22" xr:uid="{D872E695-0D6D-8043-81F1-B86DC1C12E71}"/>
+    <hyperlink ref="C2" r:id="rId23" xr:uid="{745F66F9-4612-0241-9784-1D64DD50A902}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Documentos.xlsx
+++ b/docs/PPG/Documentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4132112-7763-E94C-8FE1-53DD79B7E1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACDC152-75F8-0843-AB60-16A2F11C84BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="209">
   <si>
     <t>Publicação</t>
   </si>
@@ -665,6 +665,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1RTvX0cbaBD-fgMJ0ojyVeBNqXvFAvSGI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>2022-2</t>
+  </si>
+  <si>
+    <t>Calendário 2022-2.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pYyYtD2c58xiVGYDZ30bOGAFEIkTgF1c/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2346,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2361,286 +2370,298 @@
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C24">
-    <sortCondition descending="1" ref="A4:A24"/>
-    <sortCondition ref="B4:B24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C25">
+    <sortCondition descending="1" ref="A5:A25"/>
+    <sortCondition ref="B5:B25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1" xr:uid="{26A2D68A-4772-1445-9925-0132001B33BC}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{5C9C3329-E022-6E48-8E73-4A3ED9B2C85A}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{4FE288B9-FA34-C540-AE22-4DCBC476328A}"/>
-    <hyperlink ref="C21" r:id="rId4" xr:uid="{47E61DAF-474D-2549-BB3A-680FE49DE58A}"/>
-    <hyperlink ref="C20" r:id="rId5" xr:uid="{F1C7CB66-F3D1-9B45-AF16-F6BBA468813A}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{50FA510A-31B3-9A4C-AF22-022A08FC5753}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{D605F9D8-87B4-7545-88F8-0836F454AF1B}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{9A09FF75-B312-8846-9977-F8CCB9B5C3F6}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{EF0C1FF7-E680-8E43-A74C-ECAF19F7491D}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{8D3E0A0A-3534-2448-BDCF-AB812D15F9FF}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{9B60F528-5A9B-7648-A610-F8FB2DC6E5AB}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{869C15E8-E239-2C4F-B3BC-6C26CEBA71D9}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{F4EBDBE3-1A47-1545-A22E-A00420589B8A}"/>
-    <hyperlink ref="C11" r:id="rId14" xr:uid="{F7301F90-2D39-4246-978D-B7E7DB62D415}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{BABAE171-D937-C941-B1F4-288367031C0E}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{0B45D062-8CCC-F04E-B5A9-834A2EBE0AF6}"/>
-    <hyperlink ref="C8" r:id="rId17" xr:uid="{04F615BF-0CD8-E245-9B86-1D708B06BD04}"/>
-    <hyperlink ref="C7" r:id="rId18" xr:uid="{920D2E45-4659-5B47-88AD-7C7F45A18F01}"/>
-    <hyperlink ref="C6" r:id="rId19" xr:uid="{0A271885-2D63-FB42-8645-543D7C05A2B4}"/>
-    <hyperlink ref="C5" r:id="rId20" xr:uid="{F5B3F1A7-53F1-5F4F-8FBF-3221B140425D}"/>
-    <hyperlink ref="C4" r:id="rId21" xr:uid="{F2B3D762-81EA-274F-9519-66A0A3B8DB01}"/>
-    <hyperlink ref="C3" r:id="rId22" xr:uid="{D872E695-0D6D-8043-81F1-B86DC1C12E71}"/>
-    <hyperlink ref="C2" r:id="rId23" xr:uid="{745F66F9-4612-0241-9784-1D64DD50A902}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{26A2D68A-4772-1445-9925-0132001B33BC}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{5C9C3329-E022-6E48-8E73-4A3ED9B2C85A}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{4FE288B9-FA34-C540-AE22-4DCBC476328A}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{47E61DAF-474D-2549-BB3A-680FE49DE58A}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{F1C7CB66-F3D1-9B45-AF16-F6BBA468813A}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{50FA510A-31B3-9A4C-AF22-022A08FC5753}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{D605F9D8-87B4-7545-88F8-0836F454AF1B}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{9A09FF75-B312-8846-9977-F8CCB9B5C3F6}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{EF0C1FF7-E680-8E43-A74C-ECAF19F7491D}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{8D3E0A0A-3534-2448-BDCF-AB812D15F9FF}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{9B60F528-5A9B-7648-A610-F8FB2DC6E5AB}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{869C15E8-E239-2C4F-B3BC-6C26CEBA71D9}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{F4EBDBE3-1A47-1545-A22E-A00420589B8A}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{F7301F90-2D39-4246-978D-B7E7DB62D415}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{BABAE171-D937-C941-B1F4-288367031C0E}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{0B45D062-8CCC-F04E-B5A9-834A2EBE0AF6}"/>
+    <hyperlink ref="C9" r:id="rId17" xr:uid="{04F615BF-0CD8-E245-9B86-1D708B06BD04}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{920D2E45-4659-5B47-88AD-7C7F45A18F01}"/>
+    <hyperlink ref="C7" r:id="rId19" xr:uid="{0A271885-2D63-FB42-8645-543D7C05A2B4}"/>
+    <hyperlink ref="C6" r:id="rId20" xr:uid="{F5B3F1A7-53F1-5F4F-8FBF-3221B140425D}"/>
+    <hyperlink ref="C5" r:id="rId21" xr:uid="{F2B3D762-81EA-274F-9519-66A0A3B8DB01}"/>
+    <hyperlink ref="C4" r:id="rId22" xr:uid="{D872E695-0D6D-8043-81F1-B86DC1C12E71}"/>
+    <hyperlink ref="C3" r:id="rId23" xr:uid="{745F66F9-4612-0241-9784-1D64DD50A902}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{05FF038C-FD25-6C44-80DF-6BA687D9BF78}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Documentos.xlsx
+++ b/docs/PPG/Documentos.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACDC152-75F8-0843-AB60-16A2F11C84BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5028E3-B4C7-6547-8232-9FEE6E6C1060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vigentes" sheetId="1" r:id="rId1"/>
-    <sheet name="Revogados" sheetId="3" r:id="rId2"/>
-    <sheet name="Historico" sheetId="18" r:id="rId3"/>
-    <sheet name="PortariaBolsas" sheetId="19" r:id="rId4"/>
-    <sheet name="2006-2010 APCN" sheetId="5" r:id="rId5"/>
-    <sheet name="2010-2012 Trienal" sheetId="6" r:id="rId6"/>
-    <sheet name="2013-2016 Quadrienal" sheetId="7" r:id="rId7"/>
-    <sheet name="2017-2020 Quadrienal" sheetId="9" r:id="rId8"/>
-    <sheet name="Turmas" sheetId="8" r:id="rId9"/>
-    <sheet name="Dinter2019" sheetId="12" r:id="rId10"/>
-    <sheet name="Minter2019" sheetId="13" r:id="rId11"/>
-    <sheet name="PCI2021" sheetId="20" r:id="rId12"/>
-    <sheet name="2017-2020 Autoavaliação" sheetId="15" r:id="rId13"/>
-    <sheet name="2021-2024 Autoavaliação" sheetId="16" r:id="rId14"/>
+    <sheet name="Historico" sheetId="18" r:id="rId1"/>
+    <sheet name="PortariaBolsas" sheetId="19" r:id="rId2"/>
+    <sheet name="2006-2010 APCN" sheetId="5" r:id="rId3"/>
+    <sheet name="2010-2012 Trienal" sheetId="6" r:id="rId4"/>
+    <sheet name="2013-2016 Quadrienal" sheetId="7" r:id="rId5"/>
+    <sheet name="2017-2020 Quadrienal" sheetId="9" r:id="rId6"/>
+    <sheet name="Turmas" sheetId="8" r:id="rId7"/>
+    <sheet name="Dinter2019" sheetId="12" r:id="rId8"/>
+    <sheet name="Minter2019" sheetId="13" r:id="rId9"/>
+    <sheet name="PCI2021" sheetId="20" r:id="rId10"/>
+    <sheet name="2017-2020 Autoavaliação" sheetId="15" r:id="rId11"/>
+    <sheet name="2021-2024 Autoavaliação" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
   <si>
     <t>Publicação</t>
   </si>
@@ -55,54 +53,6 @@
     <t>2021-1</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1gJ4ZkZHoBWUBAO_fbMeszyEllJwYwKrs/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1t7pb3TReFKU4HWBLbP01x42GcD2vdnNy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oBA3C1LaClz9iLpsgS-9Y01fIXb3VINZ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WrCKsw0KjcrOlO45eSScz7hsIr0bAfHt/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Disciplinas PPGCR.pdf</t>
-  </si>
-  <si>
-    <t>Manual do Aluno PPGCR.pdf</t>
-  </si>
-  <si>
-    <t>Normas de Trabalhos PPGCR.pdf</t>
-  </si>
-  <si>
-    <t>Regulamento PPGCR.pdf</t>
-  </si>
-  <si>
-    <t>Regulamento PGGCR.pdf</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qG4DeLo2_5VlzBNjnMvW1_UJ_N5YyIM9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ii4X0Eaj9eZJ9mUK_N-6io4nSebMB2dO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13MFu-6RCZynyHHajrAOVwaZyyNv_ICUF/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NX-6um--6syWTE-CHRG6jVOpBVnEeQfP/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14QGhUSqA1gN0yBUivTF6wehmiA4mfQsq/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ReJBBXCRvRhSIvFz4or9pVnfEdDdWO6e/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_J3rp2voof1SZkP_oSGLvDxGnKC71H9A/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Ficha de Recomendação APCN IES 31063012.pdf</t>
   </si>
   <si>
@@ -352,42 +302,6 @@
     <t>https://drive.google.com/file/d/1yw9uVdyL7efA-gz94fYXtg1pia94haWw/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1SmHxfzQlqqyiKRTD_IJlefvdX4NaZyuu/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Documento modelo PPGCR.docx</t>
-  </si>
-  <si>
-    <t>Cronograma modelo PPGCR</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1m5Z7qXXYSEfrJTrusDCfQhcS2Gnw70IC/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>2011-1</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13ptX5eDHaduw7LgxGFtqtTHldXh9w-K4/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wF32RzqQeFjOlinmV5CNmHiVodwz8Qtl/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1IaOi06IHUvbyhMAMJcV9mOhFvdxCMBdt/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mw4wiqY6oO-VVSAkXYqo-GXxK9Wvm9jW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Slides Doutorado.ppt</t>
-  </si>
-  <si>
-    <t>Slides Mestrado.ppt</t>
-  </si>
-  <si>
-    <t>Slides Pós-Doutorado.ppt</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -397,18 +311,6 @@
     <t>Abrir</t>
   </si>
   <si>
-    <t>2017-2021</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1hCeGAyEPFlf9OdgGGnXqTfjmyjHvMoke/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>PDI UNISUAM.pdf</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tVyozfcjDD9grCyhk8GmyMPvvaw2pXaQ/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2019-2022 DINTER Inspirar.pdf</t>
   </si>
   <si>
@@ -517,18 +419,9 @@
     <t>2021-2</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/12sjc_LfFm7aDYxBg2a7GIKnf01LDXQD3/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>FAQ PPGCR.pdf</t>
-  </si>
-  <si>
     <t>Calendário 2021-2.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1F4njSoGRZM6uqScrzZyr5gwUhpKzkA4I/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Acordo de Cooperação Técnica - CEFAN-UNISUAM</t>
   </si>
   <si>
@@ -598,21 +491,9 @@
     <t>https://drive.google.com/file/d/1CTvJYjuwhtZCoCQfqplgO_zYKMCZC0NS/view?usp=sharing</t>
   </si>
   <si>
-    <t>2012-2016</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fw69JgSH1Lng6WCmxQ4Ns7yVQclKtfFd/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Calendário 2021 PCI.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1mL5X0lX4FgsXRD7W5PRcR5a99R_y_-ws/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1x-G6Acxgq658ILKLx5DCow9nhLQGHIBg/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1pxG_GtuR-7ixsqNOUnKJ7U9Scsi8pMVH/view?usp=sharing</t>
   </si>
   <si>
@@ -623,9 +504,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1pvs3iOmuYoppUuHoK-nLVSywCsGFFuIW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18KT6hFduHlxoZ3K5qFsgHqrnWerHFStO/view?usp=sharing</t>
   </si>
   <si>
     <t>2019</t>
@@ -726,15 +604,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1052,361 +927,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD6E09-5725-BA4A-BA76-BECEC3669735}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>192</v>
+        <v>125</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
-    <sortCondition descending="1" ref="A3:A12"/>
-    <sortCondition ref="B3:B12"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{DB57E0E7-9A8B-7140-8D28-991BB0FD7F7D}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{AA44DC58-5326-8C4C-85BB-E22BC9AD1956}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{75B16AF2-46C3-6246-BDE5-B138BFD304BD}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{8F1BAC88-F153-1142-BBB1-C9827E523619}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{3D82C74A-A7D4-C240-86CB-33835EFD9F50}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{414B49AD-16C8-504B-82BF-C99DE372005F}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{C445AED2-6FFD-EE47-A01F-364BEA33C43D}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{637EE788-E971-164C-A3EB-A6408DA20554}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{410AE709-E0C2-3F49-B85E-A18F580F5A42}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{5530C49E-2CC5-094E-A10B-78A6B8E0EC87}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{CB58EB3F-82D5-4C43-BFC1-74480F2253BB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5D51D62A-8FFE-0A47-904D-99E359532B53}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C76B88-2C3D-B145-984D-C416504A8722}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
-    <sortCondition descending="1" ref="A1:A5"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{F93CBF70-25F2-084B-8EAD-30D5F975F702}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{20B664DF-7180-C54F-A323-9935CF15A2CD}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{78D58BC3-FCBF-0C41-A634-EE052A524128}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{02338CE7-B92A-B143-BBEF-F338D6ED0B13}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{9F24AA71-33EA-A746-A22C-C821DD7CF774}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1198B1B3-B9E1-CF42-9849-0EB45CD145A3}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
-    <sortCondition descending="1" ref="A1:A5"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{D88F50DC-002C-2A47-822E-7A261E76B63A}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{C4364D93-0C60-7940-AE7B-3C5B2C18C740}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{8B8EA94D-40BC-2B47-9EE5-00EE0979DE26}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{13388AAB-16F2-8445-A075-4021F4A12995}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{E744347B-C556-EF4B-B147-8FF41F5F89C5}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1AC4A1-C8B6-AE4B-8ACF-66C6E53C51FA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1424,32 +987,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1479,76 +1042,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1556,10 +1119,10 @@
         <v>2020</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,7 +1145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1600,32 +1163,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,10 +1196,10 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,10 +1207,10 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,10 +1218,10 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,10 +1229,10 @@
         <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1686,252 +1249,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD200B65-A641-2B48-9E18-CFDD6C161957}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>2009</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C15">
-    <sortCondition descending="1" ref="A4:A15"/>
-    <sortCondition ref="B4:B15"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{4DA40D97-AF87-DE4F-B6F0-734419FA730D}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{9329E276-3803-5049-8981-E28236EF1069}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{9C929BE8-81D6-DD4C-B8E4-7CBBE91C8EBE}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{AA850064-CADC-834F-8A0E-8E892C4C85AC}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{4CFF68A3-E1B5-9743-AB9A-24A0BE2F2DE5}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{597AB2BD-C309-7C44-9B77-4BBDA248D833}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{E7682100-31C6-7049-9A62-410F0291305C}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{F554CF89-45E8-184F-A408-6CE7C852A3EA}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{C8F96D9E-0D22-2147-AC82-24BDFE5C888B}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{94F25680-3FBA-E847-8B28-170F3C08B241}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{7208CD68-3DF5-BF47-9405-6F47704E8AC5}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{D37240E0-C68D-2940-86DE-E16BE9399B5B}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{D83D392D-1F27-5A47-B2FD-4A02F76604D8}"/>
-    <hyperlink ref="C3" r:id="rId14" xr:uid="{151761C0-FC1C-6640-AF59-5A64D72D57B5}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD6E09-5725-BA4A-BA76-BECEC3669735}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5D51D62A-8FFE-0A47-904D-99E359532B53}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94136E52-E2D6-024A-9912-A91D8261A9B0}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1949,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1960,10 +1277,10 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>162</v>
+        <v>128</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,10 +1288,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1982,10 +1299,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +1315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C99B75D-5745-C048-88BD-D4987D9A6B31}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2016,54 +1333,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2090,7 +1407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C7AFEF-36C8-864D-8651-D421BA918B4B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2108,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2119,21 +1436,21 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2141,10 +1458,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2152,10 +1469,10 @@
         <v>2013</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2163,10 +1480,10 @@
         <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB634CC-B533-104D-9C10-DEDB979EEA13}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2212,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,10 +1551,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2245,10 +1562,10 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2256,10 +1573,10 @@
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2289,7 +1606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9191A-63AF-7C48-8D7A-59051EE43090}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2307,32 +1624,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -2362,43 +1679,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>206</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,230 +1723,230 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2665,4 +1982,192 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C76B88-2C3D-B145-984D-C416504A8722}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
+    <sortCondition descending="1" ref="A1:A5"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{F93CBF70-25F2-084B-8EAD-30D5F975F702}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{20B664DF-7180-C54F-A323-9935CF15A2CD}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{78D58BC3-FCBF-0C41-A634-EE052A524128}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{02338CE7-B92A-B143-BBEF-F338D6ED0B13}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{9F24AA71-33EA-A746-A22C-C821DD7CF774}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1198B1B3-B9E1-CF42-9849-0EB45CD145A3}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
+    <sortCondition descending="1" ref="A1:A5"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{D88F50DC-002C-2A47-822E-7A261E76B63A}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{C4364D93-0C60-7940-AE7B-3C5B2C18C740}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8B8EA94D-40BC-2B47-9EE5-00EE0979DE26}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{13388AAB-16F2-8445-A075-4021F4A12995}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{E744347B-C556-EF4B-B147-8FF41F5F89C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Documentos.xlsx
+++ b/docs/PPG/Documentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5028E3-B4C7-6547-8232-9FEE6E6C1060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2AB161-79E0-B948-84D4-4C1CBFD251E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <sheet name="2010-2012 Trienal" sheetId="6" r:id="rId4"/>
     <sheet name="2013-2016 Quadrienal" sheetId="7" r:id="rId5"/>
     <sheet name="2017-2020 Quadrienal" sheetId="9" r:id="rId6"/>
-    <sheet name="Turmas" sheetId="8" r:id="rId7"/>
-    <sheet name="Dinter2019" sheetId="12" r:id="rId8"/>
-    <sheet name="Minter2019" sheetId="13" r:id="rId9"/>
-    <sheet name="PCI2021" sheetId="20" r:id="rId10"/>
-    <sheet name="2017-2020 Autoavaliação" sheetId="15" r:id="rId11"/>
-    <sheet name="2021-2024 Autoavaliação" sheetId="16" r:id="rId12"/>
+    <sheet name="Dinter2019" sheetId="12" r:id="rId7"/>
+    <sheet name="Minter2019" sheetId="13" r:id="rId8"/>
+    <sheet name="PCI2021" sheetId="20" r:id="rId9"/>
+    <sheet name="2017-2020 Autoavaliação" sheetId="15" r:id="rId10"/>
+    <sheet name="2021-2024 Autoavaliação" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>Publicação</t>
   </si>
   <si>
-    <t>2021-1</t>
-  </si>
-  <si>
     <t>Ficha de Recomendação APCN IES 31063012.pdf</t>
   </si>
   <si>
@@ -74,24 +70,9 @@
     <t>https://drive.google.com/file/d/1-C_kxtP8pPvS8VdYxT6u2slU4IT9igTw/view?usp=sharing</t>
   </si>
   <si>
-    <t>2012-1</t>
-  </si>
-  <si>
-    <t>2013-1</t>
-  </si>
-  <si>
-    <t>2017-1</t>
-  </si>
-  <si>
     <t>2019-1</t>
   </si>
   <si>
-    <t>2014-2</t>
-  </si>
-  <si>
-    <t>2018-2</t>
-  </si>
-  <si>
     <t>2007-1</t>
   </si>
   <si>
@@ -140,96 +121,6 @@
     <t>Portaria No. 656 DOU 23/05/2017, Seção 1 Página 14.pdf</t>
   </si>
   <si>
-    <t>Calendário 2010.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2011.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2012-1.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2013-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2014-1.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2014-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2015-1.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2015-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2016-1.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2016-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2017-1.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2017-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2018-1.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2018-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2019-1.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2019-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2020-1.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2020-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2021-1.pdf</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012-2</t>
-  </si>
-  <si>
-    <t>2013-2</t>
-  </si>
-  <si>
-    <t>2014-1</t>
-  </si>
-  <si>
-    <t>2015-1</t>
-  </si>
-  <si>
-    <t>2015-2</t>
-  </si>
-  <si>
-    <t>2016-1</t>
-  </si>
-  <si>
-    <t>2016-2</t>
-  </si>
-  <si>
-    <t>2017-2</t>
-  </si>
-  <si>
-    <t>2018-1</t>
-  </si>
-  <si>
     <t>2019-2</t>
   </si>
   <si>
@@ -239,69 +130,6 @@
     <t>2020-2</t>
   </si>
   <si>
-    <t>Calendário 2012-2.pdf</t>
-  </si>
-  <si>
-    <t>Calendário 2013-1.pdf</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10YKEfa6sT1EkD-l5Wx5y5gVAJ3pyC3f2/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/167gMEpfykjjpdQLLRE0hooBMX0VDcV6C/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19Rffdl2cY2mVmwtRNIKAEdsvbqWSnWcs/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19lTvm4n-OuKUTLXMu6Eax4PK7Mo4Hh6z/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BBQAN54GQYYOBOLxztY9TymKPKFVjTj9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DUgy0Ww18JTklcla_Nvk-CK-ocrkedpY/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1HjGqghvf2RTiYfiX6sijkj6iq1pIqf4T/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JXybygfI-NaRyu33Fb8kkyDbGoP7BlzO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NEgfvKjIfxCnQfgpBtV62v1Dl_1z7nHj/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RGqwIIsZ1i_k6_2DfrVVwR7oF75W6A-d/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TLTVD5oF_8rTJ8NvMk-0MOhlj9dP2CWi/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ZPpnaqys6uVCr1TJMd2cv3yriFtJcZ3R/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_D6CEcEggBjv3P86XEVWhJeC3sASXOtq/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_mErdCWGBAOtaIlt4tvnRLVq6wNEsslI/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1eEf-p_TymXM2EMMHiN4EgHUJiKGyrTv3/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oFW3dqNMg-HJJ43DBAP8-osAfbCxm9AS/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tKs4DIbs4NrrpLa0gUHGEciXcrowLt7u/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vyO2jEgIZABFtiHteiLstVojHImhe3Lf/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yw9uVdyL7efA-gz94fYXtg1pia94haWw/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -416,12 +244,6 @@
     <t>https://drive.google.com/file/d/1CGrxoawXXgyBYV1YIa4dnQ1ydvqW-V4_/view?usp=sharing</t>
   </si>
   <si>
-    <t>2021-2</t>
-  </si>
-  <si>
-    <t>Calendário 2021-2.pdf</t>
-  </si>
-  <si>
     <t>Acordo de Cooperação Técnica - CEFAN-UNISUAM</t>
   </si>
   <si>
@@ -479,15 +301,6 @@
     <t>https://drive.google.com/file/d/1eoXPHkHkKDBZ-MCZRCTDnMpuV4D4KUH-/view?usp=sharing</t>
   </si>
   <si>
-    <t>2022-1</t>
-  </si>
-  <si>
-    <t>Calendário 2022-1.pdf</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CRXNNlYqbza1yesyceweh1xVMUR6iXGx/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1CTvJYjuwhtZCoCQfqplgO_zYKMCZC0NS/view?usp=sharing</t>
   </si>
   <si>
@@ -533,25 +346,7 @@
     <t>https://drive.google.com/file/d/1SX_dH_sYASOIoT5kYr5Z37odJ9TLNUsW/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1YZ1i77J7-fgPIJoDwH-LEyYwuEKHgr44/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YYURn8Fj2llVhPR6pMSBMl0H4v5XLoF1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YZAUwl80hu2hbEVAD-JcymdZ6lpTtHp2/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1RTvX0cbaBD-fgMJ0ojyVeBNqXvFAvSGI/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>2022-2</t>
-  </si>
-  <si>
-    <t>Calendário 2022-2.pdf</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pYyYtD2c58xiVGYDZ30bOGAFEIkTgF1c/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -604,14 +399,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -944,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -955,10 +748,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -970,61 +763,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1AC4A1-C8B6-AE4B-8ACF-66C6E53C51FA}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{99BC2D61-3167-5C42-85B4-3EE9FF377B43}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{AEBFC48B-A9B4-8040-988E-F185159BF474}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1042,76 +780,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1119,10 +857,10 @@
         <v>2020</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1145,7 +883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1163,32 +901,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1196,10 +934,10 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1207,10 +945,10 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1218,10 +956,10 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,10 +967,10 @@
         <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1266,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1277,10 +1015,10 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>127</v>
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,10 +1026,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,10 +1037,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1333,54 +1071,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1425,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1436,21 +1174,21 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1458,10 +1196,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1469,10 +1207,10 @@
         <v>2013</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1480,10 +1218,10 @@
         <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,10 +1289,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1562,10 +1300,10 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1573,10 +1311,10 @@
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1624,32 +1362,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1662,329 +1400,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109E75EB-4039-C840-A144-16CD29903E29}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C25">
-    <sortCondition descending="1" ref="A5:A25"/>
-    <sortCondition ref="B5:B25"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{26A2D68A-4772-1445-9925-0132001B33BC}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{5C9C3329-E022-6E48-8E73-4A3ED9B2C85A}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{4FE288B9-FA34-C540-AE22-4DCBC476328A}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{47E61DAF-474D-2549-BB3A-680FE49DE58A}"/>
-    <hyperlink ref="C21" r:id="rId5" xr:uid="{F1C7CB66-F3D1-9B45-AF16-F6BBA468813A}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{50FA510A-31B3-9A4C-AF22-022A08FC5753}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{D605F9D8-87B4-7545-88F8-0836F454AF1B}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{9A09FF75-B312-8846-9977-F8CCB9B5C3F6}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{EF0C1FF7-E680-8E43-A74C-ECAF19F7491D}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{8D3E0A0A-3534-2448-BDCF-AB812D15F9FF}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{9B60F528-5A9B-7648-A610-F8FB2DC6E5AB}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{869C15E8-E239-2C4F-B3BC-6C26CEBA71D9}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{F4EBDBE3-1A47-1545-A22E-A00420589B8A}"/>
-    <hyperlink ref="C12" r:id="rId14" xr:uid="{F7301F90-2D39-4246-978D-B7E7DB62D415}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{BABAE171-D937-C941-B1F4-288367031C0E}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{0B45D062-8CCC-F04E-B5A9-834A2EBE0AF6}"/>
-    <hyperlink ref="C9" r:id="rId17" xr:uid="{04F615BF-0CD8-E245-9B86-1D708B06BD04}"/>
-    <hyperlink ref="C8" r:id="rId18" xr:uid="{920D2E45-4659-5B47-88AD-7C7F45A18F01}"/>
-    <hyperlink ref="C7" r:id="rId19" xr:uid="{0A271885-2D63-FB42-8645-543D7C05A2B4}"/>
-    <hyperlink ref="C6" r:id="rId20" xr:uid="{F5B3F1A7-53F1-5F4F-8FBF-3221B140425D}"/>
-    <hyperlink ref="C5" r:id="rId21" xr:uid="{F2B3D762-81EA-274F-9519-66A0A3B8DB01}"/>
-    <hyperlink ref="C4" r:id="rId22" xr:uid="{D872E695-0D6D-8043-81F1-B86DC1C12E71}"/>
-    <hyperlink ref="C3" r:id="rId23" xr:uid="{745F66F9-4612-0241-9784-1D64DD50A902}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{05FF038C-FD25-6C44-80DF-6BA687D9BF78}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C76B88-2C3D-B145-984D-C416504A8722}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2002,65 +1417,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +1493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1198B1B3-B9E1-CF42-9849-0EB45CD145A3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2096,65 +1511,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2170,4 +1585,59 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1AC4A1-C8B6-AE4B-8ACF-66C6E53C51FA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{99BC2D61-3167-5C42-85B4-3EE9FF377B43}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{AEBFC48B-A9B4-8040-988E-F185159BF474}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Documentos.xlsx
+++ b/docs/PPG/Documentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4EF49D-8982-844A-B0A1-55904E360997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0BD3EA-7E37-514D-A773-A1AAA5730350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Publicação</t>
   </si>
@@ -43,15 +43,6 @@
     <t>2021-1</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1gJ4ZkZHoBWUBAO_fbMeszyEllJwYwKrs/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1t7pb3TReFKU4HWBLbP01x42GcD2vdnNy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WrCKsw0KjcrOlO45eSScz7hsIr0bAfHt/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Disciplinas PPGCR.pdf</t>
   </si>
   <si>
@@ -67,27 +58,6 @@
     <t>Regulamento PGGCR.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1qG4DeLo2_5VlzBNjnMvW1_UJ_N5YyIM9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ii4X0Eaj9eZJ9mUK_N-6io4nSebMB2dO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13MFu-6RCZynyHHajrAOVwaZyyNv_ICUF/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NX-6um--6syWTE-CHRG6jVOpBVnEeQfP/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14QGhUSqA1gN0yBUivTF6wehmiA4mfQsq/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ReJBBXCRvRhSIvFz4or9pVnfEdDdWO6e/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_J3rp2voof1SZkP_oSGLvDxGnKC71H9A/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2012-1</t>
   </si>
   <si>
@@ -112,94 +82,121 @@
     <t>2011-1</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/13ptX5eDHaduw7LgxGFtqtTHldXh9w-K4/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Abrir</t>
   </si>
   <si>
     <t>PDI UNISUAM.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1tVyozfcjDD9grCyhk8GmyMPvvaw2pXaQ/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Documento</t>
   </si>
   <si>
     <t>2021-2</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/12sjc_LfFm7aDYxBg2a7GIKnf01LDXQD3/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2012-2016</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1fw69JgSH1Lng6WCmxQ4Ns7yVQclKtfFd/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18KT6hFduHlxoZ3K5qFsgHqrnWerHFStO/view?usp=sharing</t>
-  </si>
-  <si>
     <t>FAQ PPGCR.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hCeGAyEPFlf9OdgGGnXqTfjmyjHvMoke/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2017-2021</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1mw4wiqY6oO-VVSAkXYqo-GXxK9Wvm9jW/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Slides Pós-Doutorado.ppt</t>
   </si>
   <si>
     <t>2018-1</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1IaOi06IHUvbyhMAMJcV9mOhFvdxCMBdt/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Slides Mestrado.ppt</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1wF32RzqQeFjOlinmV5CNmHiVodwz8Qtl/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Slides Doutorado.ppt</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1oBA3C1LaClz9iLpsgS-9Y01fIXb3VINZ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1SmHxfzQlqqyiKRTD_IJlefvdX4NaZyuu/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Documento modelo PPGCR.docx</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1m5Z7qXXYSEfrJTrusDCfQhcS2Gnw70IC/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Cronograma modelo PPGCR</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1u5MHCqc1hs6M-E_3q0iiq3Ir_-FB9keA/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Orientações à Banca Examinadora.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1mL5X0lX4FgsXRD7W5PRcR5a99R_y_-ws/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1F4njSoGRZM6uqScrzZyr5gwUhpKzkA4I/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1x-G6Acxgq658ILKLx5DCow9nhLQGHIBg/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1b0pO2PTjOviC91wbLkRmDwSNdjn_b9ia/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1c-YSz4hj60MdujW-MK78XFGnzpBV3ltR/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1bo2TWbdpxuCQL4UzRMR9LTyI42nTux10/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1axmS_29dUTuGde6-mfvaMVx81z4AHOHf/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1cBhKXh8TbSvUz-6Y1xbhh7nDFOcUkUIB/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bvpW9lrnivhMf-tongR9qIMJ-pFTGXT5/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bv0xmRRxxWi1yNkXw_v_rAy3eGhkwJt_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c5yDivSLHxEA0W1mLz56_pWjRDQKHNL8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1b2cLR221IBu6jhKyNz58PC6yeAs0zrny/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1b3LFCydeYp0eMphBKfUAv5_deEa1emrD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j7ljkP2LctLqj8TBTwhpgfLMsDoNhsE9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iedfQXZ8WyazZiHBl4OeRVBcnRss8zav/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -592,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -603,32 +600,32 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -636,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -647,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -658,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -669,54 +666,54 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,26 +721,26 @@
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{71553A56-7613-6249-B4DA-328518C7FEB2}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{E3E1DF9D-6DC6-C44E-9322-7B1CA07D4346}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{D4DA66A3-9C9D-634A-94DE-E3537974237B}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{96010B99-849D-474E-BD7A-2747CA29F1BD}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{8BAED412-D368-AB44-8C32-7F9FB9BD0C63}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{F6774122-A131-F34A-A3F7-38CD01E5B079}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{CCE9566B-5DB1-3B4A-A43E-B6A9E6FC376F}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{0B187BD5-CA03-004D-9844-6DE1D62EF0B4}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{ED70D6E5-473E-A44A-84EF-94FAAE58E8D7}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{3872203A-822F-E446-935D-78388BB384EA}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{7055319C-4077-0741-8938-A2ABCA913A75}"/>
-    <hyperlink ref="C5" r:id="rId12" xr:uid="{EC07EF23-C3A6-474C-8C55-3E58F781487D}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{56C56D7E-2135-A74D-BA2E-25208B8CAD37}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{38E3EFD9-E05A-D943-B81F-9E48C3BB0427}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{030C4F3F-C946-DF4B-9287-8F45F8640FE9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -767,21 +764,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -789,10 +786,10 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -800,120 +797,120 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -921,10 +918,10 @@
         <v>2009</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -933,20 +930,18 @@
     <sortCondition ref="B4:B15"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{4DA40D97-AF87-DE4F-B6F0-734419FA730D}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{9329E276-3803-5049-8981-E28236EF1069}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{9C929BE8-81D6-DD4C-B8E4-7CBBE91C8EBE}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{AA850064-CADC-834F-8A0E-8E892C4C85AC}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{4CFF68A3-E1B5-9743-AB9A-24A0BE2F2DE5}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{597AB2BD-C309-7C44-9B77-4BBDA248D833}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{E7682100-31C6-7049-9A62-410F0291305C}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{F554CF89-45E8-184F-A408-6CE7C852A3EA}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{C8F96D9E-0D22-2147-AC82-24BDFE5C888B}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{94F25680-3FBA-E847-8B28-170F3C08B241}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{7208CD68-3DF5-BF47-9405-6F47704E8AC5}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{D37240E0-C68D-2940-86DE-E16BE9399B5B}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{D83D392D-1F27-5A47-B2FD-4A02F76604D8}"/>
-    <hyperlink ref="C3" r:id="rId14" xr:uid="{151761C0-FC1C-6640-AF59-5A64D72D57B5}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Documentos.xlsx
+++ b/docs/PPG/Documentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0BD3EA-7E37-514D-A773-A1AAA5730350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBD4A9-6A4F-E646-9B95-E0156EE1A85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Publicação</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1iedfQXZ8WyazZiHBl4OeRVBcnRss8zav/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c0rk9Txd3Y8t-YLmnntPl-irpKTKHFsp/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
